--- a/target/classes/com/qa/mercuryTool/testdata/TestData.xlsx
+++ b/target/classes/com/qa/mercuryTool/testdata/TestData.xlsx
@@ -4,18 +4,101 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11985" windowHeight="5265"/>
   </bookViews>
   <sheets>
-    <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
+    <sheet name="NewRegistration" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postal</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Samraj</t>
+  </si>
+  <si>
+    <t>Bhowmik</t>
+  </si>
+  <si>
+    <t>7755991670</t>
+  </si>
+  <si>
+    <t>samraj.bhowmik@gmail.com</t>
+  </si>
+  <si>
+    <t>pimple saudagar</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>411027</t>
+  </si>
+  <si>
+    <t>sam2192</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>8143851907</t>
+  </si>
+  <si>
+    <t>samrajbhowmik92@gmail.com</t>
+  </si>
+  <si>
+    <t>rom1234</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIA </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +106,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,14 +143,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,14 +475,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/target/classes/com/qa/mercuryTool/testdata/TestData.xlsx
+++ b/target/classes/com/qa/mercuryTool/testdata/TestData.xlsx
@@ -10,6 +10,7 @@
     <sheet name="NewRegistration" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
